--- a/Device_security.xlsx
+++ b/Device_security.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
-    <author/>
+    <author> </author>
   </authors>
   <commentList>
     <comment ref="B34" authorId="0">
@@ -109,10 +109,10 @@
     <t xml:space="preserve">Change temperature</t>
   </si>
   <si>
+    <t xml:space="preserve">2S</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add/change schedule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2S</t>
   </si>
   <si>
     <t xml:space="preserve">create/modify settings</t>
@@ -313,6 +313,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -468,12 +469,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -545,16 +546,15 @@
   </sheetPr>
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B94" activeCellId="0" sqref="B94"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -627,11 +627,11 @@
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -639,10 +639,10 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -686,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -697,7 +697,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -708,7 +708,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,7 +719,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -730,7 +730,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -741,7 +741,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -796,7 +796,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,7 +873,7 @@
         <v>38</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1005,7 +1005,7 @@
         <v>50</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1181,7 +1181,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,7 +1192,7 @@
         <v>57</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,7 +1390,7 @@
         <v>34</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,7 +1445,7 @@
         <v>34</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1456,7 +1456,7 @@
         <v>76</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1467,7 +1467,7 @@
         <v>18</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1484,7 +1484,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/Device_security.xlsx
+++ b/Device_security.xlsx
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="119">
   <si>
     <t xml:space="preserve">Device Name</t>
   </si>
@@ -79,6 +79,9 @@
     <t xml:space="preserve">Critical Tags</t>
   </si>
   <si>
+    <t xml:space="preserve">Remark</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smart Lock</t>
   </si>
   <si>
@@ -88,15 +91,24 @@
     <t xml:space="preserve">1S</t>
   </si>
   <si>
+    <t xml:space="preserve">Anyone can unlock and come inside. Ex: theif</t>
+  </si>
+  <si>
     <t xml:space="preserve">View usage history</t>
   </si>
   <si>
-    <t xml:space="preserve">1S1P</t>
+    <t xml:space="preserve">1P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The movement of a person can be tracked and monitored. It can be a question of life and death by knowing who is inside and who is outside.</t>
   </si>
   <si>
     <t xml:space="preserve">Control/modify users</t>
   </si>
   <si>
+    <t xml:space="preserve">Same above reason</t>
+  </si>
+  <si>
     <t xml:space="preserve">Restrict usage over a period</t>
   </si>
   <si>
@@ -112,6 +124,9 @@
     <t xml:space="preserve">2S</t>
   </si>
   <si>
+    <t xml:space="preserve">Affect the user indirectly with temperature.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add/change schedule</t>
   </si>
   <si>
@@ -127,6 +142,9 @@
     <t xml:space="preserve">Select background color</t>
   </si>
   <si>
+    <t xml:space="preserve">Affect the user indirectly with temperature, light.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Change schedule</t>
   </si>
   <si>
@@ -145,10 +163,16 @@
     <t xml:space="preserve">Ask questions/info (non-private)</t>
   </si>
   <si>
+    <t xml:space="preserve">Anybody can do it. No restrictions to it.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ask private details</t>
   </si>
   <si>
-    <t xml:space="preserve">1P</t>
+    <t xml:space="preserve">2P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assuming the device is not programmed to give out private details like bank numbers, etc.</t>
   </si>
   <si>
     <t xml:space="preserve">Add items to shopping cart</t>
@@ -157,39 +181,63 @@
     <t xml:space="preserve">3S</t>
   </si>
   <si>
+    <t xml:space="preserve">Overloading of the shopping cart causing inconvenience, so on the device level and not user level.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Adding skills</t>
   </si>
   <si>
     <t xml:space="preserve">Setting alarms</t>
   </si>
   <si>
+    <t xml:space="preserve">Disturbing user with sound.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Order using the skills</t>
   </si>
   <si>
+    <t xml:space="preserve">Loss of money while ordering. + assumption of restrictions set by the user.</t>
+  </si>
+  <si>
     <t xml:space="preserve">View preferences/history</t>
   </si>
   <si>
-    <t xml:space="preserve">2P</t>
+    <t xml:space="preserve">User habits and details known.</t>
   </si>
   <si>
     <t xml:space="preserve">Modify preferences</t>
   </si>
   <si>
+    <t xml:space="preserve">2P2S</t>
+  </si>
+  <si>
     <t xml:space="preserve">View shopping cart</t>
   </si>
   <si>
+    <t xml:space="preserve">Knowing directly about users’ usage and habits but not serious info like bak accounts.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stream music</t>
   </si>
   <si>
+    <t xml:space="preserve">Damage by on and off continuosly</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smart shower</t>
   </si>
   <si>
     <t xml:space="preserve">Add/modify users</t>
   </si>
   <si>
+    <t xml:space="preserve">Directly affect the user because of shower</t>
+  </si>
+  <si>
     <t xml:space="preserve">Change parameters</t>
   </si>
   <si>
+    <t xml:space="preserve">Usage of shower is seen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add new equipment</t>
   </si>
   <si>
@@ -205,12 +253,21 @@
     <t xml:space="preserve">Watch sensitive content</t>
   </si>
   <si>
+    <t xml:space="preserve">Tells us about the usage of device by the user and sensitive usage.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add restrictions(device based and content based)</t>
   </si>
   <si>
+    <t xml:space="preserve">Device level only</t>
+  </si>
+  <si>
     <t xml:space="preserve">Order online</t>
   </si>
   <si>
+    <t xml:space="preserve">Money loss or device problem</t>
+  </si>
+  <si>
     <t xml:space="preserve">Change device settings</t>
   </si>
   <si>
@@ -223,15 +280,33 @@
     <t xml:space="preserve">Make video calls</t>
   </si>
   <si>
+    <t xml:space="preserve">Can threaten using this feature or create noise.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cast other device</t>
   </si>
   <si>
+    <t xml:space="preserve">Noise and disturbance possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usage history known</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2S2P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since overall non critical privacy and security</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smart security system</t>
   </si>
   <si>
     <t xml:space="preserve">Dis/arm system</t>
   </si>
   <si>
+    <t xml:space="preserve">Secuirty system</t>
+  </si>
+  <si>
     <t xml:space="preserve">UN/lock smart lock</t>
   </si>
   <si>
@@ -256,6 +331,9 @@
     <t xml:space="preserve">Switch ON/OFF </t>
   </si>
   <si>
+    <t xml:space="preserve">Assuming not connected to important security devices.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Add/modify scenes or schedules</t>
   </si>
   <si>
@@ -265,6 +343,9 @@
     <t xml:space="preserve">Adjust sensitivity</t>
   </si>
   <si>
+    <t xml:space="preserve">Detects presence which is a first level security aspect</t>
+  </si>
+  <si>
     <t xml:space="preserve">View history</t>
   </si>
   <si>
@@ -274,21 +355,57 @@
     <t xml:space="preserve">3P</t>
   </si>
   <si>
+    <t xml:space="preserve">Device settings and history only</t>
+  </si>
+  <si>
     <t xml:space="preserve">View device condition</t>
   </si>
   <si>
+    <t xml:space="preserve">KNOWING ABOUT DEVICE</t>
+  </si>
+  <si>
     <t xml:space="preserve">View inside fridge</t>
   </si>
   <si>
+    <t xml:space="preserve">Can know about user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">only device level</t>
+  </si>
+  <si>
     <t xml:space="preserve">View family board</t>
   </si>
   <si>
+    <t xml:space="preserve">direct information about user’s details family. Not 2p as not related to device and user.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Modify family board</t>
   </si>
   <si>
+    <t xml:space="preserve">1P3S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direct information about user’s details family. And can misuse board Not 2p as not related to device and user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anyone can do it but minimum level of authorisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3S1P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Person needs to give credentials</t>
+  </si>
+  <si>
     <t xml:space="preserve">View recipes</t>
   </si>
   <si>
+    <t xml:space="preserve">ability to modify indirect threat and see the preferences as well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">just normal misuse by over usage.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Smart Oven</t>
   </si>
   <si>
@@ -298,7 +415,16 @@
     <t xml:space="preserve">View current parameters of the oven</t>
   </si>
   <si>
+    <t xml:space="preserve">Knowing this can do some harm to user</t>
+  </si>
+  <si>
     <t xml:space="preserve">create/modify timers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can cause fire with a high timer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">device related only</t>
   </si>
 </sst>
 </file>
@@ -308,7 +434,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -335,6 +461,13 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -430,7 +563,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -439,31 +572,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -544,17 +685,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D87" activeCellId="0" sqref="D87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -567,918 +708,1156 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>5</v>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
+      <c r="A8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="C11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
+      <c r="B12" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
+      <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
+      <c r="A18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
+      <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="C19" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>23</v>
+      <c r="A21" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E21" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>25</v>
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>27</v>
+      <c r="A23" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
+      <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
+      <c r="B24" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="C24" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>30</v>
+      <c r="A25" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>31</v>
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>32</v>
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="E27" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>34</v>
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>35</v>
+      <c r="A29" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="E29" s="0" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>23</v>
+      <c r="A30" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E30" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>10</v>
+      <c r="A31" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>51</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>6</v>
+        <v>51</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>57</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="5" t="s">
-        <v>42</v>
+      <c r="A39" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E39" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>44</v>
+      <c r="A40" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>45</v>
+      <c r="A41" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>46</v>
+      <c r="A42" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>47</v>
+      <c r="A43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
-        <v>42</v>
+      <c r="A44" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E44" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>49</v>
+      <c r="A45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>50</v>
+      <c r="A46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>51</v>
+      <c r="A47" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C47" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="E47" s="0" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>32</v>
+      <c r="A48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>34</v>
+      <c r="A49" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>10</v>
+      <c r="A50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="5" t="s">
+      <c r="A51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="C52" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>38</v>
+      <c r="A53" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>52</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>28</v>
+        <v>74</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>53</v>
+      <c r="A55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>54</v>
+      <c r="A56" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>55</v>
+      <c r="A57" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>56</v>
+      <c r="A58" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>57</v>
+      <c r="A59" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>58</v>
+      <c r="A60" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="E60" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>59</v>
+      <c r="A61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>61</v>
+        <v>85</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="E63" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>62</v>
+        <v>85</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E64" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>57</v>
+        <v>85</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="E65" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>5</v>
+        <v>17</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E73" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="2" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E80" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C68" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B80" s="6" t="s">
+      <c r="C82" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>28</v>
+      <c r="E82" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5" t="s">
-        <v>66</v>
+      <c r="A83" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E83" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>58</v>
+      <c r="A84" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="E84" s="0" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>34</v>
+      <c r="A85" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>13</v>
+        <v>74</v>
+      </c>
+      <c r="E85" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>10</v>
+      <c r="A86" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E86" s="0" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="E88" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>75</v>
+        <v>112</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>114</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>5</v>
+        <v>33</v>
+      </c>
+      <c r="E89" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>58</v>
+        <v>112</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="E90" s="0" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>34</v>
+        <v>112</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>13</v>
+        <v>74</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>76</v>
+        <v>112</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>18</v>
+        <v>112</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C94" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
